--- a/MODELES/31212_etab.xlsx
+++ b/MODELES/31212_etab.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\pierr\ALIDade\MODELES\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A00BD5-25C9-4287-A56A-6D17A43268FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookPassword="B52A" lockStructure="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF13891-C780-413D-83E0-EC6B64D35E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kxsXkTMO/oap9oQB4Dz6+Pn3TxoZmxvln9V6BUVYRDF/aZLTBe/MM70HNR3dz1iMlVZnGrvA8mme2lI7ggijDQ==" workbookSaltValue="Pd8W36ypEIkGgLDD8ePcxg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="21168" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +12,16 @@
     <sheet name="Page de garde" sheetId="1" r:id="rId1"/>
     <sheet name="RECAPNOTES" sheetId="2" r:id="rId2"/>
     <sheet name="PFMP" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RECAPNOTES!$A$11:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,17 +31,26 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{C3D265C8-F98F-41EC-AEB0-FFD79ACABA67}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Auteur:
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Report automatique des notes de l'onglet RECAPNOTES</t>
         </r>
       </text>
@@ -57,32 +65,50 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{2205E509-42AD-413C-83EC-0415043A2FC1}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Auteur:
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Report de la Page de garde </t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{153C4C46-0151-4AEE-8FF8-9DE9F860D1C1}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Auteur:
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Report de la page de garde</t>
         </r>
       </text>
@@ -92,18 +118,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>DOSSIER ETABLISSEMENT</t>
   </si>
   <si>
+    <t>Sous-Épreuve</t>
+  </si>
+  <si>
+    <t>ETABLISSEMENT :</t>
+  </si>
+  <si>
+    <t>Nombre de candidats :</t>
+  </si>
+  <si>
+    <t>DDF:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noms des enseignants évaluateurs : </t>
+  </si>
+  <si>
+    <t>Liste des élèves</t>
+  </si>
+  <si>
+    <t>N° Matricule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom </t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>/20</t>
+  </si>
+  <si>
+    <t>Moyenne des notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note la plus basse </t>
+  </si>
+  <si>
+    <t>Note la plus haute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de l'établissement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe (s) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session </t>
+  </si>
+  <si>
+    <t>Nom de l'établissement :</t>
+  </si>
+  <si>
+    <t>Noms des professeurs évaluateurs :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session : </t>
+  </si>
+  <si>
+    <t>N° matricule</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>Période 1</t>
+  </si>
+  <si>
+    <t>Période 2</t>
+  </si>
+  <si>
+    <t>Période 3</t>
+  </si>
+  <si>
+    <t>Période 4</t>
+  </si>
+  <si>
+    <t>Remarques concernant les PFMP du candidat le cas échéant</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTEMENT 78 /91 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTEMENT 92/95 : </t>
+  </si>
+  <si>
+    <t>SESSION 2023</t>
+  </si>
+  <si>
+    <t>Période 5</t>
+  </si>
+  <si>
+    <t>Période 6</t>
+  </si>
+  <si>
+    <t>Dérogation (oui/non)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noms des professeurs chargés de l'évaluation : </t>
+  </si>
+  <si>
+    <t>nbre de semaines</t>
+  </si>
+  <si>
+    <t>Nbre de semaines total</t>
+  </si>
+  <si>
+    <t>Nbre de jours effectif</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
     <t>BACCALAUREAT PROFESSIONNEL</t>
   </si>
   <si>
     <t>METIERS DE L'ACCUEIL</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
+    <t>Gestion de l’accueil multicanal</t>
+  </si>
+  <si>
+    <t>Gestion de l’information et des prestations</t>
+  </si>
+  <si>
+    <t>Lycée Saint-Vincent de Paul, Versailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lycée Lucien Voilin, Puteaux </t>
   </si>
   <si>
     <t xml:space="preserve">EPREUVE E3 </t>
@@ -112,161 +264,53 @@
     <t>PRATIQUES PROFESSIONNELLES LIÉES À L’ACCUEIL</t>
   </si>
   <si>
-    <t>Sous-Épreuve</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
-    <t>Gestion de l’accueil multicanal</t>
-  </si>
-  <si>
-    <t>E32</t>
-  </si>
-  <si>
-    <t>Gestion de l’information et des prestations</t>
-  </si>
-  <si>
-    <t>ETABLISSEMENT :</t>
-  </si>
-  <si>
-    <t>Moyenne des notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note la plus basse </t>
-  </si>
-  <si>
-    <t>Note la plus haute</t>
-  </si>
-  <si>
-    <t>Nombre de candidats :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noms des professeurs chargés de l'évaluation : </t>
-  </si>
-  <si>
-    <t>DDF:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire parvenir ce dossier numérique pour le 7 juin 2023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTEMENT 78 /91 : </t>
-  </si>
-  <si>
-    <t>Lycée Saint-Vincent de Paul, Versailles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTEMENT 92/95 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycée Lucien Voilin, Puteaux </t>
+    <t>Epreuves E31 E32 - Évaluation en CCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminale métiers de l'accueil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion de l’information et des prestations </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Faire parvenir ce dossier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numérique</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour le 7 juin 2023 </t>
+    </r>
   </si>
   <si>
     <t>BAC PROFESSIONNEL METIERS DE L'ACCUEIL</t>
   </si>
   <si>
-    <t>Epreuves E31 E32 - Évaluation en CCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de l'établissement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe (s) : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminale métiers de l'accueil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noms des enseignants évaluateurs : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session </t>
-  </si>
-  <si>
-    <t>Liste des élèves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de l’information et des prestations </t>
-  </si>
-  <si>
-    <t>N° Matricule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom </t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>/20</t>
-  </si>
-  <si>
     <t>BAC PROFESSIONNEL METIERS DE L'ACCUEIL - Tableau récapitulatif des PFMP</t>
-  </si>
-  <si>
-    <t>Nom de l'établissement :</t>
-  </si>
-  <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Noms des professeurs évaluateurs :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session : </t>
-  </si>
-  <si>
-    <t>N° matricule</t>
-  </si>
-  <si>
-    <t>NOM</t>
-  </si>
-  <si>
-    <t>Dérogation (oui/non)</t>
-  </si>
-  <si>
-    <t>Période 1</t>
-  </si>
-  <si>
-    <t>Période 2</t>
-  </si>
-  <si>
-    <t>Période 3</t>
-  </si>
-  <si>
-    <t>Période 4</t>
-  </si>
-  <si>
-    <t>Période 5</t>
-  </si>
-  <si>
-    <t>Période 6</t>
-  </si>
-  <si>
-    <t>Nbre de semaines total</t>
-  </si>
-  <si>
-    <t>Nbre de jours effectif</t>
-  </si>
-  <si>
-    <t>Remarques concernant les PFMP du candidat le cas échéant</t>
-  </si>
-  <si>
-    <t>nbre de semaines</t>
-  </si>
-  <si>
-    <t>OUI</t>
-  </si>
-  <si>
-    <t>NON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +495,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -464,6 +522,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -528,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -890,6 +961,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -929,6 +1015,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -965,6 +1064,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -985,6 +1093,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1014,6 +1137,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1089,43 +1225,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1135,7 +1241,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1143,7 +1249,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1234,7 +1340,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,7 +1361,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,7 +1380,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1296,7 +1402,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
@@ -1308,19 +1414,19 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1336,13 +1442,13 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1351,7 +1457,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
@@ -1360,129 +1466,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D0CB5C27-04EF-4522-882E-0E0C94499334}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1567,14 +1772,20 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB49A7A9-13D8-42CD-A880-DDE82851265E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1591,7 +1802,6 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -1877,19 +2087,19 @@
     <col min="9" max="9" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:9" ht="31.05" x14ac:dyDescent="0.65">
       <c r="A5" s="49"/>
-      <c r="B5" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="B5" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
@@ -1899,20 +2109,20 @@
       <c r="A7" s="50"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="1:9" ht="23.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="23.85" x14ac:dyDescent="0.5">
       <c r="A8" s="50"/>
-      <c r="B8" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:9" ht="23.55" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.85" x14ac:dyDescent="0.5">
       <c r="A9" s="50"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -1922,51 +2132,51 @@
     </row>
     <row r="10" spans="1:9" ht="50.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
-      <c r="B10" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="93"/>
+      <c r="B10" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:9" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="51"/>
-      <c r="B12" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="B12" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E19" s="23"/>
     </row>
@@ -1975,13 +2185,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E21" s="23"/>
     </row>
@@ -1996,21 +2206,21 @@
       <c r="D23" s="24"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="27" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:9" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:9" ht="18.3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="89"/>
-    </row>
-    <row r="29" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+    </row>
+    <row r="29" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14" t="e">
@@ -2024,7 +2234,7 @@
     </row>
     <row r="31" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="14">
@@ -2038,7 +2248,7 @@
     </row>
     <row r="32" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="14">
@@ -2050,18 +2260,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="53"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="53"/>
@@ -2069,53 +2279,53 @@
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
     </row>
-    <row r="36" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
     </row>
-    <row r="37" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="89"/>
+    <row r="37" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="97"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="53"/>
       <c r="C38" s="54"/>
       <c r="D38" s="53"/>
       <c r="E38" s="53"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-    </row>
-    <row r="39" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+    </row>
+    <row r="39" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="53"/>
       <c r="C39" s="54"/>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
     </row>
-    <row r="40" spans="2:9" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
+    <row r="40" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="53"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="89"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="19"/>
@@ -2125,19 +2335,19 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I44" s="55"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I45" s="55"/>
     </row>
@@ -2150,33 +2360,33 @@
   </sheetData>
   <sheetProtection password="B52A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F34:I34"/>
     <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B10:I10"/>
     <mergeCell ref="B12:I12"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="G38:H38"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A610EC8-2BEB-40F7-B1CF-09C2D1E4B937}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2188,83 +2398,83 @@
     <col min="5" max="5" width="41.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="110">
+    <row r="1" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="20.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.3" x14ac:dyDescent="0.3">
+      <c r="A4" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="113">
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E4" s="111"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="103"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="114"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="116"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.3" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="102">
+      <c r="D6" s="115">
         <f>'Page de garde'!F37</f>
         <v>0</v>
       </c>
-      <c r="E6" s="103"/>
-    </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="104" t="str">
+      <c r="E6" s="116"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.850000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="123" t="str">
         <f>'Page de garde'!B12</f>
         <v>SESSION 2023</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="124"/>
     </row>
     <row r="8" spans="1:5" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="A8" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="66" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2272,219 +2482,219 @@
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="65" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.100000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="38"/>
       <c r="D10" s="65"/>
       <c r="E10" s="69"/>
     </row>
-    <row r="11" spans="1:5" ht="18.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="63"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="63"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="63"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="63"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="63"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="63"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="63"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="63"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="63"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="63"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="63"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="63"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="63"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="63"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="63"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="63"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="63"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="63"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="63"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="63"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="63"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="63"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="63"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="63"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="63"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -2561,7 +2771,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="63"/>
       <c r="B49" s="82"/>
       <c r="C49" s="82"/>
@@ -2572,7 +2782,7 @@
       <c r="A50" s="59"/>
       <c r="B50" s="60"/>
       <c r="C50" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="28" t="e">
         <f>AVERAGE(D12:D49)</f>
@@ -2587,7 +2797,7 @@
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="30">
         <f>MIN(D12:D49)</f>
@@ -2602,10 +2812,10 @@
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
       <c r="C52" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="32">
-        <f>MAX(D12:D49)</f>
+        <f t="shared" ref="D52" si="0">MAX(D12:D49)</f>
         <v>0</v>
       </c>
       <c r="E52" s="33">
@@ -2615,31 +2825,32 @@
     </row>
   </sheetData>
   <sheetProtection password="CEA4" sheet="1" selectLockedCells="1"/>
-  <autoFilter ref="A11:C11" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A11:C11" xr:uid="{595C1803-15C5-4AA6-981A-084CCBBA4371}"/>
   <mergeCells count="10">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10797FFB-5847-429F-9414-66532FD1B041}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2657,50 +2868,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="125"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.649999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
-      <c r="D3" s="119">
+      <c r="D3" s="135">
         <f>'Page de garde'!E28</f>
         <v>0</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
@@ -2708,19 +2919,19 @@
       <c r="L3" s="43"/>
       <c r="M3" s="44"/>
     </row>
-    <row r="4" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.649999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
-      <c r="D4" s="134" t="str">
+      <c r="D4" s="138" t="str">
         <f>RECAPNOTES!D5</f>
         <v xml:space="preserve">Terminale métiers de l'accueil </v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
@@ -2728,19 +2939,19 @@
       <c r="L4" s="43"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.649999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
-      <c r="D5" s="134">
+      <c r="D5" s="138">
         <f>'Page de garde'!F37</f>
         <v>0</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="131"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
@@ -2750,17 +2961,17 @@
     </row>
     <row r="6" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
-      <c r="D6" s="129" t="str">
+      <c r="D6" s="141" t="str">
         <f>RECAPNOTES!D7</f>
         <v>SESSION 2023</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
@@ -2768,7 +2979,7 @@
       <c r="L6" s="47"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" ht="16.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.649999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="72"/>
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
@@ -2780,78 +2991,78 @@
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="121"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="126"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="133" t="s">
-        <v>43</v>
+      <c r="A8" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="148" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="132" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="K8" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="127" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="118"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="127"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="78" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J9" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="86"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="K9" s="151"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="128"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f>RECAPNOTES!A12</f>
         <v>0</v>
@@ -2876,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="71">
-        <f t="shared" ref="L10:L41" si="1">SUM(K10*5)</f>
+        <f>SUM(K10*5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f>RECAPNOTES!A13</f>
         <v>0</v>
@@ -2906,12 +3117,12 @@
         <v>0</v>
       </c>
       <c r="L11" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L11:L41" si="1">SUM(K11*5)</f>
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f>RECAPNOTES!A14</f>
         <v>0</v>
@@ -2941,7 +3152,7 @@
       </c>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f>RECAPNOTES!A15</f>
         <v>0</v>
@@ -2971,7 +3182,7 @@
       </c>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f>RECAPNOTES!A16</f>
         <v>0</v>
@@ -3001,7 +3212,7 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f>RECAPNOTES!A17</f>
         <v>0</v>
@@ -3031,7 +3242,7 @@
       </c>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f>RECAPNOTES!A18</f>
         <v>0</v>
@@ -3061,7 +3272,7 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f>RECAPNOTES!A19</f>
         <v>0</v>
@@ -3091,7 +3302,7 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f>RECAPNOTES!A20</f>
         <v>0</v>
@@ -3121,7 +3332,7 @@
       </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f>RECAPNOTES!A21</f>
         <v>0</v>
@@ -3151,7 +3362,7 @@
       </c>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f>RECAPNOTES!A22</f>
         <v>0</v>
@@ -3181,7 +3392,7 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f>RECAPNOTES!A23</f>
         <v>0</v>
@@ -3211,7 +3422,7 @@
       </c>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <f>RECAPNOTES!A24</f>
         <v>0</v>
@@ -3241,7 +3452,7 @@
       </c>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <f>RECAPNOTES!A25</f>
         <v>0</v>
@@ -3271,7 +3482,7 @@
       </c>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <f>RECAPNOTES!A26</f>
         <v>0</v>
@@ -3301,7 +3512,7 @@
       </c>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <f>RECAPNOTES!A27</f>
         <v>0</v>
@@ -3331,7 +3542,7 @@
       </c>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <f>RECAPNOTES!A28</f>
         <v>0</v>
@@ -3361,7 +3572,7 @@
       </c>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <f>RECAPNOTES!A29</f>
         <v>0</v>
@@ -3391,7 +3602,7 @@
       </c>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <f>RECAPNOTES!A30</f>
         <v>0</v>
@@ -3421,7 +3632,7 @@
       </c>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <f>RECAPNOTES!A31</f>
         <v>0</v>
@@ -3451,7 +3662,7 @@
       </c>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <f>RECAPNOTES!A32</f>
         <v>0</v>
@@ -3481,7 +3692,7 @@
       </c>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <f>RECAPNOTES!A33</f>
         <v>0</v>
@@ -3511,7 +3722,7 @@
       </c>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <f>RECAPNOTES!A34</f>
         <v>0</v>
@@ -3541,7 +3752,7 @@
       </c>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <f>RECAPNOTES!A35</f>
         <v>0</v>
@@ -3571,7 +3782,7 @@
       </c>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <f>RECAPNOTES!A36</f>
         <v>0</v>
@@ -3601,7 +3812,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <f>RECAPNOTES!A37</f>
         <v>0</v>
@@ -3631,7 +3842,7 @@
       </c>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <f>RECAPNOTES!A38</f>
         <v>0</v>
@@ -3661,7 +3872,7 @@
       </c>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <f>RECAPNOTES!A39</f>
         <v>0</v>
@@ -3691,7 +3902,7 @@
       </c>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <f>RECAPNOTES!A40</f>
         <v>0</v>
@@ -3721,7 +3932,7 @@
       </c>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <f>RECAPNOTES!A41</f>
         <v>0</v>
@@ -3751,7 +3962,7 @@
       </c>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <f>RECAPNOTES!A42</f>
         <v>0</v>
@@ -3781,7 +3992,7 @@
       </c>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <f>RECAPNOTES!A43</f>
         <v>0</v>
@@ -3811,7 +4022,7 @@
       </c>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:13" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="A42" s="79"/>
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
@@ -3829,27 +4040,31 @@
   </sheetData>
   <sheetProtection password="CEA4" sheet="1" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="D10">
     <cfRule type="expression" priority="12">
       <formula>"OUI"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" dxfId="6" priority="10">
       <formula>"OUI"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
       <formula>"OUI"</formula>
       <formula>"OUI"</formula>
@@ -3862,9 +4077,13 @@
     <cfRule type="expression" priority="7">
       <formula>"OUI"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D41">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>"OUI"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D41">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>"OUI"</formula>
       <formula>"OUI"</formula>
@@ -3881,28 +4100,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="B52A" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>